--- a/Text Recognization/report.xlsx
+++ b/Text Recognization/report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\Python\Data-mining\Text Recognization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B33472C3-18C8-4B51-A0F3-739982EA783F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5548CF7-530D-4F83-A6AE-F3AD372A314E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4EDFF0AE-C282-43CA-8E13-A55EBFF0E845}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,67 +573,67 @@
         <v>0</v>
       </c>
       <c r="C2" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.64</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0.59</v>
       </c>
       <c r="E2" s="2">
         <v>0.61</v>
       </c>
       <c r="F2" s="2">
-        <v>470</v>
+        <v>497</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>1</v>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="2">
-        <v>0.84</v>
+        <v>0.63</v>
       </c>
       <c r="D3" s="2">
-        <v>0.81</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E3" s="2">
-        <v>0.83</v>
+        <v>0.6</v>
       </c>
       <c r="F3" s="2">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2">
         <v>0.93</v>
       </c>
-      <c r="L3" s="2">
+      <c r="N3" s="2">
         <v>18000</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="D4" s="2">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E4" s="2">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="F4" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>34</v>
@@ -655,20 +655,20 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>3</v>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="2">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="D5" s="2">
-        <v>0.97</v>
+        <v>0.78</v>
       </c>
       <c r="E5" s="2">
-        <v>0.98</v>
+        <v>0.8</v>
       </c>
       <c r="F5" s="2">
-        <v>513</v>
+        <v>470</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>33</v>
@@ -690,40 +690,40 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>4</v>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="D6" s="2">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="E6" s="2">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F6" s="2">
-        <v>517</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
-        <v>5</v>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="D7" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E7" s="2">
         <v>0.92</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.91</v>
-      </c>
       <c r="F7" s="2">
-        <v>509</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -731,19 +731,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E8" s="2">
         <v>0.95</v>
       </c>
-      <c r="D8" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.96</v>
-      </c>
       <c r="F8" s="2">
-        <v>483</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -751,59 +751,59 @@
         <v>4</v>
       </c>
       <c r="B9" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="D9" s="2">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="E9" s="2">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F9" s="2">
-        <v>510</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="4">
-        <v>8</v>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2">
-        <v>0.98</v>
+        <v>0.93</v>
       </c>
       <c r="D10" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E10" s="2">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F10" s="2">
-        <v>502</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="4">
-        <v>9</v>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C11" s="2">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="D11" s="2">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="E11" s="2">
-        <v>0.99</v>
+        <v>0.94</v>
       </c>
       <c r="F11" s="2">
-        <v>529</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -811,39 +811,39 @@
         <v>4</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
-        <v>0.99</v>
+        <v>0.93</v>
       </c>
       <c r="D12" s="2">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E12" s="2">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="F12" s="2">
-        <v>466</v>
+        <v>505</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>6</v>
+      <c r="B13" s="4">
+        <v>2</v>
       </c>
       <c r="C13" s="2">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="D13" s="2">
-        <v>0.96</v>
+        <v>0.88</v>
       </c>
       <c r="E13" s="2">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F13" s="2">
-        <v>495</v>
+        <v>505</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -851,19 +851,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="D14" s="2">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="E14" s="2">
-        <v>0.96</v>
+        <v>0.94</v>
       </c>
       <c r="F14" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -871,39 +871,39 @@
         <v>4</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2">
-        <v>0.91</v>
+        <v>0.94</v>
       </c>
       <c r="D15" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="E15" s="2">
         <v>0.95</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.93</v>
-      </c>
       <c r="F15" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
+      <c r="B16" s="4">
+        <v>7</v>
       </c>
       <c r="C16" s="2">
         <v>0.95</v>
       </c>
       <c r="D16" s="2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E16" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F16" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -911,19 +911,19 @@
         <v>4</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <v>0.95</v>
       </c>
       <c r="D17" s="2">
-        <v>0.98</v>
+        <v>0.94</v>
       </c>
       <c r="E17" s="2">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F17" s="2">
-        <v>483</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,59 +931,59 @@
         <v>4</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="D18" s="2">
-        <v>0.94</v>
+        <v>0.88</v>
       </c>
       <c r="E18" s="2">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F18" s="2">
-        <v>541</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
+      <c r="B19" s="4">
+        <v>6</v>
       </c>
       <c r="C19" s="2">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D19" s="2">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="E19" s="2">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="F19" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>13</v>
+      <c r="B20" s="4">
+        <v>8</v>
       </c>
       <c r="C20" s="2">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="D20" s="2">
-        <v>0.83</v>
+        <v>0.98</v>
       </c>
       <c r="E20" s="2">
-        <v>0.81</v>
+        <v>0.97</v>
       </c>
       <c r="F20" s="2">
-        <v>492</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -991,7 +991,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C21" s="2">
         <v>0.96</v>
@@ -1000,10 +1000,10 @@
         <v>0.97</v>
       </c>
       <c r="E21" s="2">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="F21" s="2">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1011,19 +1011,19 @@
         <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2">
         <v>0.97</v>
       </c>
       <c r="D22" s="2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="E22" s="2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F22" s="2">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1031,19 +1031,19 @@
         <v>4</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="D23" s="2">
-        <v>0.97</v>
+        <v>0.94</v>
       </c>
       <c r="E23" s="2">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F23" s="2">
-        <v>527</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,19 +1051,19 @@
         <v>4</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D24" s="2">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="E24" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F24" s="2">
-        <v>548</v>
+        <v>483</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1071,19 +1071,19 @@
         <v>4</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2">
         <v>0.97</v>
       </c>
       <c r="D25" s="2">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="E25" s="2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="F25" s="2">
-        <v>479</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,19 +1091,19 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
-        <v>0.65</v>
+        <v>0.97</v>
       </c>
       <c r="D26" s="2">
-        <v>0.68</v>
+        <v>0.97</v>
       </c>
       <c r="E26" s="2">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="F26" s="2">
-        <v>515</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1111,19 +1111,19 @@
         <v>4</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="D27" s="2">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E27" s="2">
         <v>0.97</v>
       </c>
       <c r="F27" s="2">
-        <v>522</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,19 +1131,19 @@
         <v>4</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C28" s="2">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="D28" s="2">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="E28" s="2">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F28" s="2">
-        <v>524</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1151,19 +1151,19 @@
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2">
         <v>0.98</v>
       </c>
       <c r="D29" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E29" s="2">
         <v>0.98</v>
       </c>
       <c r="F29" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -1171,19 +1171,19 @@
         <v>4</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C30" s="2">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="D30" s="2">
-        <v>0.91</v>
+        <v>0.95</v>
       </c>
       <c r="E30" s="2">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="F30" s="2">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1194,56 +1194,56 @@
         <v>24</v>
       </c>
       <c r="C31" s="2">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D31" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="E31" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F31" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>25</v>
+      <c r="B32" s="4">
+        <v>3</v>
       </c>
       <c r="C32" s="2">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="D32" s="2">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="E32" s="2">
-        <v>0.94</v>
+        <v>0.99</v>
       </c>
       <c r="F32" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>26</v>
+      <c r="B33" s="4">
+        <v>9</v>
       </c>
       <c r="C33" s="2">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="D33" s="2">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="E33" s="2">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="F33" s="2">
-        <v>468</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,19 +1251,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C34" s="2">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D34" s="2">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="E34" s="2">
         <v>0.98</v>
       </c>
       <c r="F34" s="2">
-        <v>492</v>
+        <v>534</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1271,19 +1271,19 @@
         <v>4</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C35" s="2">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="D35" s="2">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E35" s="2">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="F35" s="2">
-        <v>456</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -1291,19 +1291,19 @@
         <v>4</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2">
-        <v>0.93</v>
+        <v>0.99</v>
       </c>
       <c r="D36" s="2">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="E36" s="2">
-        <v>0.91</v>
+        <v>0.99</v>
       </c>
       <c r="F36" s="2">
-        <v>505</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -1311,22 +1311,26 @@
         <v>4</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C37" s="2">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="D37" s="2">
-        <v>0.94</v>
+        <v>0.97</v>
       </c>
       <c r="E37" s="2">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="F37" s="2">
-        <v>530</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F37">
+    <sortCondition ref="C37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>